--- a/sample-users-template.xlsx
+++ b/sample-users-template.xlsx
@@ -1,41 +1,212 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Big Projects\kld-election-final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F535E28E-477B-4F6E-964E-F2A1EBA91918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="240" windowWidth="29040" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>userType</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>institute</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>john.doe@kld.edu.ph</t>
+  </si>
+  <si>
+    <t>2024-001</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>STUDENT</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>jane.smith@kld.edu.ph</t>
+  </si>
+  <si>
+    <t>2024-002</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>prof.williams@kld.edu.ph</t>
+  </si>
+  <si>
+    <t>FAC-001</t>
+  </si>
+  <si>
+    <t>Prof. Michael Williams</t>
+  </si>
+  <si>
+    <t>FACULTY</t>
+  </si>
+  <si>
+    <t>Professor II</t>
+  </si>
+  <si>
+    <t>dr.johnson@kld.edu.ph</t>
+  </si>
+  <si>
+    <t>FAC-002</t>
+  </si>
+  <si>
+    <t>Dr. Sarah Johnson</t>
+  </si>
+  <si>
+    <t>COMELEC</t>
+  </si>
+  <si>
+    <t>Associate Professor</t>
+  </si>
+  <si>
+    <t>admin.brown@kld.edu.ph</t>
+  </si>
+  <si>
+    <t>NT-001</t>
+  </si>
+  <si>
+    <t>Robert Brown</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>NON_TEACHING</t>
+  </si>
+  <si>
+    <t>Administrative Services</t>
+  </si>
+  <si>
+    <t>maria.garcia@kld.edu.ph</t>
+  </si>
+  <si>
+    <t>2024-003</t>
+  </si>
+  <si>
+    <t>Maria Garcia</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>poll.watcher@kld.edu.ph</t>
+  </si>
+  <si>
+    <t>PW-001</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>POLL_WATCHER</t>
+  </si>
+  <si>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>BSIS</t>
+  </si>
+  <si>
+    <t>BSPSY</t>
+  </si>
+  <si>
+    <t>BSN</t>
+  </si>
+  <si>
+    <t>BSIS402</t>
+  </si>
+  <si>
+    <t>BSPSY102</t>
+  </si>
+  <si>
+    <t>BSN202</t>
+  </si>
+  <si>
+    <t>IMACS</t>
+  </si>
+  <si>
+    <t>Information System</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +236,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,343 +575,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="21.625" customWidth="1"/>
+    <col min="12" max="12" width="22.25" customWidth="1"/>
+    <col min="13" max="13" width="22.875" customWidth="1"/>
+    <col min="14" max="14" width="14.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>email</v>
-      </c>
-      <c r="B1" t="str">
-        <v>userId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>name</v>
-      </c>
-      <c r="D1" t="str">
-        <v>role</v>
-      </c>
-      <c r="E1" t="str">
-        <v>userType</v>
-      </c>
-      <c r="F1" t="str">
-        <v>status</v>
-      </c>
-      <c r="G1" t="str">
-        <v>year</v>
-      </c>
-      <c r="H1" t="str">
-        <v>course</v>
-      </c>
-      <c r="I1" t="str">
-        <v>section</v>
-      </c>
-      <c r="J1" t="str">
-        <v>institute</v>
-      </c>
-      <c r="K1" t="str">
-        <v>department</v>
-      </c>
-      <c r="L1" t="str">
-        <v>position</v>
-      </c>
-      <c r="M1" t="str">
-        <v>unit</v>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>john.doe@kld.edu.ph</v>
-      </c>
-      <c r="B2" t="str">
-        <v>2024-001</v>
-      </c>
-      <c r="C2" t="str">
-        <v>John Doe</v>
-      </c>
-      <c r="D2" t="str">
-        <v>USER</v>
-      </c>
-      <c r="E2" t="str">
-        <v>STUDENT</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Approved</v>
-      </c>
-      <c r="G2" t="str">
-        <v>3</v>
-      </c>
-      <c r="H2" t="str">
-        <v>BS Computer Science</v>
-      </c>
-      <c r="I2" t="str">
-        <v>A</v>
-      </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <v/>
-      </c>
-      <c r="M2" t="str">
-        <v/>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>jane.smith@kld.edu.ph</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2024-002</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Jane Smith</v>
-      </c>
-      <c r="D3" t="str">
-        <v>USER</v>
-      </c>
-      <c r="E3" t="str">
-        <v>STUDENT</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Approved</v>
-      </c>
-      <c r="G3" t="str">
-        <v>2</v>
-      </c>
-      <c r="H3" t="str">
-        <v>BS Information Technology</v>
-      </c>
-      <c r="I3" t="str">
-        <v>B</v>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v/>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>prof.williams@kld.edu.ph</v>
-      </c>
-      <c r="B4" t="str">
-        <v>FAC-001</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Prof. Michael Williams</v>
-      </c>
-      <c r="D4" t="str">
-        <v>FACULTY</v>
-      </c>
-      <c r="E4" t="str">
-        <v>FACULTY</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Approved</v>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v>Institute of Technology</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Computer Science</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Professor II</v>
-      </c>
-      <c r="M4" t="str">
-        <v/>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>dr.johnson@kld.edu.ph</v>
-      </c>
-      <c r="B5" t="str">
-        <v>FAC-002</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Dr. Sarah Johnson</v>
-      </c>
-      <c r="D5" t="str">
-        <v>COMELEC</v>
-      </c>
-      <c r="E5" t="str">
-        <v>FACULTY</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Approved</v>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <v>Institute of Technology</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Information Technology</v>
-      </c>
-      <c r="L5" t="str">
-        <v>Associate Professor</v>
-      </c>
-      <c r="M5" t="str">
-        <v/>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>admin.brown@kld.edu.ph</v>
-      </c>
-      <c r="B6" t="str">
-        <v>NT-001</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Robert Brown</v>
-      </c>
-      <c r="D6" t="str">
-        <v>ADMIN</v>
-      </c>
-      <c r="E6" t="str">
-        <v>NON_TEACHING</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Approved</v>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <v/>
-      </c>
-      <c r="L6" t="str">
-        <v/>
-      </c>
-      <c r="M6" t="str">
-        <v>Administrative Services</v>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>maria.garcia@kld.edu.ph</v>
-      </c>
-      <c r="B7" t="str">
-        <v>2024-003</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Maria Garcia</v>
-      </c>
-      <c r="D7" t="str">
-        <v>USER</v>
-      </c>
-      <c r="E7" t="str">
-        <v>STUDENT</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Approved</v>
-      </c>
-      <c r="G7" t="str">
-        <v>4</v>
-      </c>
-      <c r="H7" t="str">
-        <v>BS Business Administration</v>
-      </c>
-      <c r="I7" t="str">
-        <v>C</v>
-      </c>
-      <c r="J7" t="str">
-        <v/>
-      </c>
-      <c r="K7" t="str">
-        <v/>
-      </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <v/>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>poll.watcher@kld.edu.ph</v>
-      </c>
-      <c r="B8" t="str">
-        <v>PW-001</v>
-      </c>
-      <c r="C8" t="str">
-        <v>David Lee</v>
-      </c>
-      <c r="D8" t="str">
-        <v>POLL_WATCHER</v>
-      </c>
-      <c r="E8" t="str">
-        <v>FACULTY</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Approved</v>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <v>Institute of Education</v>
-      </c>
-      <c r="K8" t="str">
-        <v>Political Science</v>
-      </c>
-      <c r="L8" t="str">
-        <v>Assistant Professor</v>
-      </c>
-      <c r="M8" t="str">
-        <v/>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M8"/>
+    <ignoredError sqref="A1:M1 A6:J6 A2:G2 J2:M2 A3:G3 J3:M3 A8:I8 A7:G7 J7 A4:I4 L4:M4 A5:I5 L5:M5 L8:M8 L6:M6 L7:M7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>